--- a/biology/Virologie/Épidémiologie_de_la_grippe_aviaire/Épidémiologie_de_la_grippe_aviaire.xlsx
+++ b/biology/Virologie/Épidémiologie_de_la_grippe_aviaire/Épidémiologie_de_la_grippe_aviaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_grippe_aviaire</t>
+          <t>Épidémiologie_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article est un des sous-chapitres de l'article grippe aviaire, il traite d'épidémiologie appliquée à l'animal.
 Alors qu'on a d'abord beaucoup accusé les oiseaux sauvages de 2003 à 2005, la contamination des élevages semble finalement être le problème le plus fréquent. Elle est classiquement attribuée à une contagion à partir d'autres élevages ou initialement à partir d'un oiseaux sauvages (élevages situés sur le trajet d'oiseaux migrateurs par exemple), mais le virus hautement pathogène peut émerger par mutation ou recombinaison au sein des élevages eux-mêmes, d'autant plus facilement que l'immunité des oiseaux domestiquées est très affaiblie ou modifiée par rapport à celle des oiseaux sauvages. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_grippe_aviaire</t>
+          <t>Épidémiologie_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Origine de l'ancêtre du virus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ignore qui a apporté le premier virus, mais on a trouvé chez les oiseaux et uniquement chez les oiseaux tous les sérotypes connus du virus de la grippe. De ce fait, et plus récemment par déduction à partir de l'arbre phylogénique (filiations par branches) des virus grippaux on a déduit que l'oiseau était vraisemblablement l'hôte original du virus, et même qu'il était originaire probable d'Asie dans le cas du H5N1.
 Mais il y a eu très peu de recherche de la prévalence du virus grippal chez d'autres espèces que l'Homme, le porc, le cheval et les oiseaux. Or depuis quelques décennies qu'on commence à en chercher, des virus grippaux ont été détectés chez un bon nombre d'autres espèces d'animaux à sang chaud.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_grippe_aviaire</t>
+          <t>Épidémiologie_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Réservoir du virus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sols ou eaux gelées de la zone paléarctique (du Canada à la Sibérie en passant par la Norvège, la Suède...) pourraient jouer un rôle passif de réservoir hivernal pour le virus. Les virus grippaux des oiseaux constituent en tous cas un des « gisements mobiles de gènes viraux ». L'espèce humaine, les porcs, poules, canards, oies, cailles, chevaux, chameaux et autres autruches en constituent d'autres (réservoirs) ; ces espèces domestiquées, par leur promiscuité, par leur homogénéité génétique, et par le fait qu'elles ont échappé depuis quelques siècles ou décennies aux processus naturels de sélection constituent sans doute aussi un stock de gènes viraux et des cibles de choix pour la grippe…Il n'est pas impossible que des maillons écoépidémiologiques du virus soient encore ignorés.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_grippe_aviaire</t>
+          <t>Épidémiologie_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +596,12 @@
           <t>Durée de vie du virus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de l'Influenza aviaire est réputé mieux survivre dans les tissus où il s'est reproduit, dans les excréments qui sont la première source de contamination pour l'oiseau, et dans l'eau (sauf si elle est acide ou chaude). 
 Il résiste 7 jours à 20 °C, 35 jours à 4 °C, selon le cours de Jean-Pierre Ganiere de l'École Nationale Vétérinaire de Nantes (donnée de mi-2005). Il résiste trois mois dans une eau légèrement basique et à des températures modérées selon l'AFSSA (2005). Mais d'autres sources portent cette durée à 105 jours, voire plusieurs mois quand la température est inférieure à 0 °C. Il résiste 105 jours dans le fumier et plusieurs heures dans le mucus séché, avec peut être des différences selon les variants ou des conditions mal comprises (teneur de l'eau en oxygène, exposition aux UV solaires, nature du biofilm, etc.).
-Incubation
-L'incubation est réputée durer de 24 heures à 7 jours selon l'isolat, la dose d'inoculum, l'espèce, l'âge et l'état de l'oiseau infecté et peut-être selon d'autres conditions mal comprises (interaction avec autres pathogènes, saison...). Un oiseau vacciné ou qui a survécu à un premier contact avec le virus, ou un variant proche est immunisé mais il peut développer une forme discrète ou asymptomatique de la maladie, c’est-à-dire excréter quelque temps une certaine quantité de virus.
-Chez les poulets, l'incubation est parfois très brève (24 à 48 heures). Et un élevage peut connaître un taux de mortalité proche de 100 % en 48 heures. En 2006, la durée d'incubation reste mal observée dans la nature et le phénomène est encore mal compris chez les oiseaux porteurs asymptomatiques, chez le porc, les félins (dont le chat) ou chez d'autres mammifères.
 </t>
         </is>
       </c>
@@ -597,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_grippe_aviaire</t>
+          <t>Épidémiologie_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,15 +627,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Contagion</t>
+          <t>Durée de vie du virus</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle se ferait essentiellement par transmission directe (contact) mais aussi indirecte (aliments contaminés par des fientes d'oiseaux sauvages, emballages souillés…). L'œuf infecté (cru ou mal cuit) est contaminant. Les voies de pénétration sont digestives et / ou respiratoires. 
-Les anatidés migrateurs hébergent souvent de façon inapparente 38 des souches pathogènes pour les poulets[1]…
-Les dindes et volailles guéries portent encore le virus influenza durant des mois, constituant encore une source de contamination pour d'autres volailles ou oiseaux sauvages (porcs ?). Des volailles vaccinées excrètent encore des virus au moins durant une semaine. Le sol souillé ou de nombreux objets souillés peuvent aussi jouer un rôle de vecteur « inanimé ».
-La virulence des virus influenza dépend de la nature du site de clivage de leur hémagglutinine. Toutes les souches de type H5 ou H7 sont potentiellement pathogènes pour la volaille. Le séquençage du site de clivage du gène HA permet d'identifier les souches pathogènes.
+          <t>Incubation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'incubation est réputée durer de 24 heures à 7 jours selon l'isolat, la dose d'inoculum, l'espèce, l'âge et l'état de l'oiseau infecté et peut-être selon d'autres conditions mal comprises (interaction avec autres pathogènes, saison...). Un oiseau vacciné ou qui a survécu à un premier contact avec le virus, ou un variant proche est immunisé mais il peut développer une forme discrète ou asymptomatique de la maladie, c’est-à-dire excréter quelque temps une certaine quantité de virus.
+Chez les poulets, l'incubation est parfois très brève (24 à 48 heures). Et un élevage peut connaître un taux de mortalité proche de 100 % en 48 heures. En 2006, la durée d'incubation reste mal observée dans la nature et le phénomène est encore mal compris chez les oiseaux porteurs asymptomatiques, chez le porc, les félins (dont le chat) ou chez d'autres mammifères.
 </t>
         </is>
       </c>
@@ -631,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9miologie_de_la_grippe_aviaire</t>
+          <t>Épidémiologie_de_la_grippe_aviaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,10 +665,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Contagion</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se ferait essentiellement par transmission directe (contact) mais aussi indirecte (aliments contaminés par des fientes d'oiseaux sauvages, emballages souillés…). L'œuf infecté (cru ou mal cuit) est contaminant. Les voies de pénétration sont digestives et / ou respiratoires. 
+Les anatidés migrateurs hébergent souvent de façon inapparente 38 des souches pathogènes pour les poulets…
+Les dindes et volailles guéries portent encore le virus influenza durant des mois, constituant encore une source de contamination pour d'autres volailles ou oiseaux sauvages (porcs ?). Des volailles vaccinées excrètent encore des virus au moins durant une semaine. Le sol souillé ou de nombreux objets souillés peuvent aussi jouer un rôle de vecteur « inanimé ».
+La virulence des virus influenza dépend de la nature du site de clivage de leur hémagglutinine. Toutes les souches de type H5 ou H7 sont potentiellement pathogènes pour la volaille. Le séquençage du site de clivage du gène HA permet d'identifier les souches pathogènes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Épidémiologie_de_la_grippe_aviaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pid%C3%A9miologie_de_la_grippe_aviaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Localisation du virus dans l'organisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de la grippe humaine saisonnière classique infecte habituellement d'abord les poumons puis parfois le tube digestif. Les récepteurs cellulaires de ce virus sont plutôt groupés dans la partie haute du système respiratoire (bronches, pharynx, trachée et muqueuse nasale), ce qui explique la forte contagiosité de cette grippe, et à l'opposé, la faible transmission interhumaine actuelle du H5N1 dont les cibles sont situées dans le fond des poumons. On craint cependant toujours une mutation permettant au H5N1 d'infecter la partie supérieure du système respiratoire.
 Les virologues avaient déjà noté en 2005, qu'au contraire de la grippe saisonnière, la grippe aviaire de type A (H5N1) pouvait chez l'Homme produire des titres viraux (taux de virus dans le mucus) plus élevés dans la gorge que dans le nez (les écouvillonnages devraient dont plutôt être faits en fond de gorge ; des échantillons des voies respiratoires inférieures pourraient offrir des moyens de diagnostic plus sensibles, et que des tests faits sur des échantillons recueillis dans le nez, mais il reste intéressant d'échantillonner le nez pour détecter une éventuelle mutation rendant le virus capable d'infecter la partie haute des poumons, dont la sphère ORL). 
